--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf6-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf6-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Gdf6</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gdf6</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.334169</v>
       </c>
       <c r="I2">
-        <v>0.1624834559770965</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.2254122992635983</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N2">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O2">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P2">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q2">
-        <v>4.557764593549444</v>
+        <v>3.393625803382223</v>
       </c>
       <c r="R2">
-        <v>41.01988134194499</v>
+        <v>30.54263223044</v>
       </c>
       <c r="S2">
-        <v>0.04708398744162583</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="T2">
-        <v>0.06950507007940851</v>
+        <v>0.2331534018544084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.334169</v>
       </c>
       <c r="I3">
-        <v>0.1624834559770965</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2254122992635983</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>104.214408</v>
       </c>
       <c r="O3">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P3">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q3">
-        <v>3.869469389661334</v>
+        <v>3.869469389661333</v>
       </c>
       <c r="R3">
         <v>34.825224506952</v>
       </c>
       <c r="S3">
-        <v>0.03997355379135233</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="T3">
-        <v>0.05900869506932761</v>
+        <v>0.2658454419670822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.334169</v>
       </c>
       <c r="I4">
-        <v>0.1624834559770965</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.2254122992635983</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N4">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O4">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P4">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q4">
-        <v>2.094876165517667</v>
+        <v>2.638862788808889</v>
       </c>
       <c r="R4">
-        <v>18.853885489659</v>
+        <v>23.74976509928</v>
       </c>
       <c r="S4">
-        <v>0.02164111836942881</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="T4">
-        <v>0.03194647544940353</v>
+        <v>0.181298667526812</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.334169</v>
       </c>
       <c r="I5">
-        <v>0.1624834559770965</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.2254122992635983</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N5">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O5">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P5">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q5">
-        <v>2.841614891283667</v>
+        <v>2.9202880204795</v>
       </c>
       <c r="R5">
-        <v>17.049689347702</v>
+        <v>17.521728122877</v>
       </c>
       <c r="S5">
-        <v>0.0293553028264108</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="T5">
-        <v>0.02888940226485751</v>
+        <v>0.1337556791894743</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.334169</v>
       </c>
       <c r="I6">
-        <v>0.1624834559770965</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.2254122992635983</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N6">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O6">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P6">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q6">
-        <v>2.364792932432333</v>
+        <v>2.706518050470666</v>
       </c>
       <c r="R6">
-        <v>21.283136391891</v>
+        <v>24.358662454236</v>
       </c>
       <c r="S6">
-        <v>0.02442949354827876</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="T6">
-        <v>0.03606265640060117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.574155</v>
-      </c>
-      <c r="H7">
-        <v>1.14831</v>
-      </c>
-      <c r="I7">
-        <v>0.8375165440229033</v>
-      </c>
-      <c r="J7">
-        <v>0.7745877007364017</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>40.91730166666667</v>
-      </c>
-      <c r="N7">
-        <v>122.751905</v>
-      </c>
-      <c r="O7">
-        <v>0.2897771170516137</v>
-      </c>
-      <c r="P7">
-        <v>0.3083463959441224</v>
-      </c>
-      <c r="Q7">
-        <v>23.492873338425</v>
-      </c>
-      <c r="R7">
-        <v>140.95724003055</v>
-      </c>
-      <c r="S7">
-        <v>0.2426931296099879</v>
-      </c>
-      <c r="T7">
-        <v>0.2388413258647139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.574155</v>
-      </c>
-      <c r="H8">
-        <v>1.14831</v>
-      </c>
-      <c r="I8">
-        <v>0.8375165440229033</v>
-      </c>
-      <c r="J8">
-        <v>0.7745877007364017</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>34.738136</v>
-      </c>
-      <c r="N8">
-        <v>104.214408</v>
-      </c>
-      <c r="O8">
-        <v>0.2460161470038337</v>
-      </c>
-      <c r="P8">
-        <v>0.2617811683839067</v>
-      </c>
-      <c r="Q8">
-        <v>19.94507447508</v>
-      </c>
-      <c r="R8">
-        <v>119.67044685048</v>
-      </c>
-      <c r="S8">
-        <v>0.2060425932124814</v>
-      </c>
-      <c r="T8">
-        <v>0.2027724733145791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.574155</v>
-      </c>
-      <c r="H9">
-        <v>1.14831</v>
-      </c>
-      <c r="I9">
-        <v>0.8375165440229033</v>
-      </c>
-      <c r="J9">
-        <v>0.7745877007364017</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>18.806737</v>
-      </c>
-      <c r="N9">
-        <v>56.420211</v>
-      </c>
-      <c r="O9">
-        <v>0.1331896729995656</v>
-      </c>
-      <c r="P9">
-        <v>0.1417246332776418</v>
-      </c>
-      <c r="Q9">
-        <v>10.797982082235</v>
-      </c>
-      <c r="R9">
-        <v>64.78789249341</v>
-      </c>
-      <c r="S9">
-        <v>0.1115485546301368</v>
-      </c>
-      <c r="T9">
-        <v>0.1097781578282383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.574155</v>
-      </c>
-      <c r="H10">
-        <v>1.14831</v>
-      </c>
-      <c r="I10">
-        <v>0.8375165440229033</v>
-      </c>
-      <c r="J10">
-        <v>0.7745877007364017</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>25.510579</v>
-      </c>
-      <c r="N10">
-        <v>51.021158</v>
-      </c>
-      <c r="O10">
-        <v>0.1806664109270835</v>
-      </c>
-      <c r="P10">
-        <v>0.1281624931702333</v>
-      </c>
-      <c r="Q10">
-        <v>14.647026485745</v>
-      </c>
-      <c r="R10">
-        <v>58.58810594297999</v>
-      </c>
-      <c r="S10">
-        <v>0.1513111081006727</v>
-      </c>
-      <c r="T10">
-        <v>0.09927309090537581</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.574155</v>
-      </c>
-      <c r="H11">
-        <v>1.14831</v>
-      </c>
-      <c r="I11">
-        <v>0.8375165440229033</v>
-      </c>
-      <c r="J11">
-        <v>0.7745877007364017</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>21.229913</v>
-      </c>
-      <c r="N11">
-        <v>63.689739</v>
-      </c>
-      <c r="O11">
-        <v>0.1503506520179033</v>
-      </c>
-      <c r="P11">
-        <v>0.1599853092240957</v>
-      </c>
-      <c r="Q11">
-        <v>12.189260698515</v>
-      </c>
-      <c r="R11">
-        <v>73.13556419109</v>
-      </c>
-      <c r="S11">
-        <v>0.1259211584696245</v>
-      </c>
-      <c r="T11">
-        <v>0.1239226528234945</v>
+        <v>0.1859468094622229</v>
       </c>
     </row>
   </sheetData>
